--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840751.7419318715</v>
+        <v>809033.0548394555</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9605662.019137572</v>
+        <v>7128448.701475534</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6288311.746335363</v>
+        <v>3476108.837864221</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9556033.580258476</v>
+        <v>10639088.44197428</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>269.5134569480836</v>
+        <v>352.0426595656929</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>222.2474724296818</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.275596830496628</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>229.5294654964014</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6049213939371</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>310.2336497834872</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>339.039918580681</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.090115857258385</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2244489913895</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.27732104186418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.6997762674749</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U14" t="n">
-        <v>71.65340757364091</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.09436150481732</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>193.7981713870603</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>137.5295404796877</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>140.1555976803212</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I17" t="n">
-        <v>61.44749355031655</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>120.9327970537822</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>26.2852395983391</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>32.22932453348982</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>332.6509805921208</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.9327970537822</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>206.1742023667267</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.18624318344742</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>128.4386832835669</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2570059982656</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H22" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>91.47612611658022</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.00352625391691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>228.1910895014597</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>245.1458442032781</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.5854101330116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>168.1158122680971</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>207.6051439140963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>90.41948680756549</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>4.791624857389297</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>156.8179111106426</v>
       </c>
       <c r="W34" t="n">
-        <v>114.2656173771019</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>197.2040098788585</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.9899243971807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>208.580481425077</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>14.10967693124363</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>225.7508892923955</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>6.380068175847859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>109.7472660450982</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>229.7965692041376</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>38.8175881791722</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>25.54245692170286</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E2" t="n">
-        <v>737.1647017090463</v>
+        <v>820.5275326359244</v>
       </c>
       <c r="F2" t="n">
-        <v>326.1787969194388</v>
+        <v>409.5416278463169</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583422</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>53.94298182036445</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,22 +4661,22 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2015.460301889088</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2015.460301889088</v>
       </c>
       <c r="X8" t="n">
-        <v>2498.558261327377</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y8" t="n">
-        <v>2108.418929351565</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4968,37 +4968,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1480.326772979394</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C11" t="n">
-        <v>1111.364256038983</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>753.0985574322322</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E11" t="n">
-        <v>367.3103048339879</v>
+        <v>807.3934508328821</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>396.4075460432745</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>199.5143021373486</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665503</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552588</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N11" t="n">
         <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R11" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2574.994750559857</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2574.994750559857</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2574.994750559857</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2243.931863216286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2243.931863216286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1870.466104955206</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1480.326772979394</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>121.8264159807866</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0048420001851</v>
+        <v>702.6555516296426</v>
       </c>
       <c r="L12" t="n">
-        <v>623.4242400445569</v>
+        <v>1053.207508523572</v>
       </c>
       <c r="M12" t="n">
-        <v>1290.968640071567</v>
+        <v>1431.308314177374</v>
       </c>
       <c r="N12" t="n">
         <v>1833.824967998518</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>672.9506641872703</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>368.7692990134925</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8833909048594</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K13" t="n">
         <v>260.2782098866545</v>
@@ -5223,28 +5223,28 @@
         <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.485439024174</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1391.729710350376</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T13" t="n">
-        <v>1168.9652718029</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U13" t="n">
-        <v>879.8496667610921</v>
+        <v>1398.700787260358</v>
       </c>
       <c r="V13" t="n">
-        <v>625.1651785552052</v>
+        <v>1144.016299054471</v>
       </c>
       <c r="W13" t="n">
-        <v>335.7480085182446</v>
+        <v>854.59912901751</v>
       </c>
       <c r="X13" t="n">
-        <v>107.7584576202273</v>
+        <v>854.59912901751</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>854.59912901751</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1266.310211282494</v>
+        <v>1848.720354406994</v>
       </c>
       <c r="C14" t="n">
-        <v>1266.310211282494</v>
+        <v>1848.720354406994</v>
       </c>
       <c r="D14" t="n">
-        <v>1266.310211282494</v>
+        <v>1569.225630904494</v>
       </c>
       <c r="E14" t="n">
-        <v>880.5219586842497</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="F14" t="n">
-        <v>469.5360538946421</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>199.514302137349</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665503</v>
+        <v>468.4264940665504</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M14" t="n">
         <v>1282.872051350724</v>
@@ -5293,13 +5293,13 @@
         <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R14" t="n">
         <v>2697.149091018222</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2488.892320950822</v>
+        <v>2488.892320950821</v>
       </c>
       <c r="U14" t="n">
-        <v>2416.515141583508</v>
+        <v>2235.320194471115</v>
       </c>
       <c r="V14" t="n">
-        <v>2416.515141583508</v>
+        <v>2235.320194471115</v>
       </c>
       <c r="W14" t="n">
-        <v>2416.515141583508</v>
+        <v>2235.320194471115</v>
       </c>
       <c r="X14" t="n">
-        <v>2043.049383322428</v>
+        <v>2235.320194471115</v>
       </c>
       <c r="Y14" t="n">
-        <v>1652.910051346616</v>
+        <v>2235.320194471115</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>121.8264159807866</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0048420001851</v>
+        <v>537.8115956207105</v>
       </c>
       <c r="L15" t="n">
-        <v>709.9552114858197</v>
+        <v>845.2309936650822</v>
       </c>
       <c r="M15" t="n">
-        <v>1088.056017139621</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1490.572670960765</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>1836.576975997078</v>
+        <v>1971.852758176341</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.22100977735</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
-        <v>2533.012570513408</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
         <v>2560.986726597623</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.377376515824</v>
+        <v>835.7352149361283</v>
       </c>
       <c r="C16" t="n">
-        <v>919.4411935879167</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D16" t="n">
-        <v>769.3245541755809</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E16" t="n">
-        <v>621.4114605931878</v>
+        <v>368.7692990134925</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5215130952774</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G16" t="n">
-        <v>306.5851434000597</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>158.2916353233891</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8833909048594</v>
+        <v>82.88339090485937</v>
       </c>
       <c r="K16" t="n">
         <v>260.2782098866545</v>
@@ -5454,34 +5454,34 @@
         <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q16" t="n">
         <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.485439024174</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1391.729710350376</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T16" t="n">
-        <v>1391.729710350376</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="U16" t="n">
-        <v>1102.614105308568</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="V16" t="n">
-        <v>1102.614105308568</v>
+        <v>1353.141935871106</v>
       </c>
       <c r="W16" t="n">
-        <v>1102.614105308568</v>
+        <v>1063.724765834146</v>
       </c>
       <c r="X16" t="n">
-        <v>1102.614105308568</v>
+        <v>835.7352149361283</v>
       </c>
       <c r="Y16" t="n">
-        <v>1102.614105308568</v>
+        <v>835.7352149361283</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1811.389660322965</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>1442.427143382553</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
-        <v>1084.161444775803</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1084.161444775803</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>673.1755399861954</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>257.5824679119177</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H17" t="n">
-        <v>116.0111571237145</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>199.5143021373487</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>468.4264940665502</v>
+        <v>818.2062848686785</v>
       </c>
       <c r="L17" t="n">
-        <v>838.9376088552594</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M17" t="n">
-        <v>1282.872051350723</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N17" t="n">
-        <v>1738.603625623768</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O17" t="n">
-        <v>2155.602766936376</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>2477.000885571628</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.18474111696</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>2574.994750559857</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>2574.994750559857</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>2574.994750559857</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>2574.994750559857</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
-        <v>2574.994750559857</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X17" t="n">
-        <v>2201.528992298777</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y17" t="n">
-        <v>1811.389660322965</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8531758150857</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>302.146753175264</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>72.31292442990731</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>121.8264159807866</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>316.0048420001851</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>983.5492420271952</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1361.650047680997</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1764.166701502141</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.171006538454</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2438.195165861565</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58359627895</v>
+        <v>681.943336404663</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6474133510434</v>
+        <v>681.943336404663</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5307739387076</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6176803563145</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7277328584041</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>234.7913631631864</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>86.49785508651578</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
-        <v>82.88339090485941</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>260.2782098866545</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>851.0870999282812</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1687.816392302166</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1492.060663628367</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1492.060663628367</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1492.060663628367</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V19" t="n">
-        <v>1237.37617542248</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W19" t="n">
-        <v>1237.37617542248</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37617542248</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58359627895</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1216.533050191442</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>1216.533050191442</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>880.5219586842497</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>880.5219586842497</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>469.5360538946421</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>199.5143021373488</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>468.4264940665503</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>838.937608855259</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>1282.872051350723</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>1738.603625623768</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>2155.602766936376</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>2477.000885571628</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.18474111696</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>2574.994750559857</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.737980492456</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>2366.737980492456</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.737980492456</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>2366.737980492456</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>1993.272222231376</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>1603.132890255564</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8531758150857</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1467531752639</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>72.3129244299073</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>121.8264159807866</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>316.0048420001852</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>737.9293675700344</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.030173223836</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1518.54682704498</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>1864.551132081293</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2438.195165861565</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>773.193739743959</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C22" t="n">
-        <v>604.2575568160521</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D22" t="n">
-        <v>604.2575568160521</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E22" t="n">
-        <v>604.2575568160521</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F22" t="n">
-        <v>474.5215130952774</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G22" t="n">
-        <v>306.5851434000597</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>158.2916353233891</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>82.88339090485943</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>260.2782098866546</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>851.0870999282812</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1465.05195375469</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1465.05195375469</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V22" t="n">
-        <v>1465.05195375469</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.634783717729</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X22" t="n">
-        <v>1175.634783717729</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.8422045741987</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5998,13 +5998,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6083,25 +6083,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.473796464095</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X25" t="n">
-        <v>1253.473796464095</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1944.904841306683</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>1575.942324366272</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>3095.109771607697</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3095.109771607697</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3095.109771607697</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>2721.644013346617</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2331.504681370805</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.924953962485</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034578</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622243</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.95903803985</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>3133.919937435997</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>3133.919937435997</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>3133.919937435997</v>
+        <v>1295.26890164926</v>
       </c>
       <c r="V28" t="n">
-        <v>2879.235449230111</v>
+        <v>1040.584413443373</v>
       </c>
       <c r="W28" t="n">
-        <v>2879.235449230111</v>
+        <v>1040.584413443373</v>
       </c>
       <c r="X28" t="n">
-        <v>2879.235449230111</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y28" t="n">
-        <v>2671.573418792725</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2175.400891308157</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>1806.438374367746</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1448.172675760995</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.384423162751</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>651.3985183731436</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>236.3260682181401</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.605821609171</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.140063348091</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.000731372279</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811095</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999825</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387314</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332758</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601609</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927789</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064583</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031484</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158141</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.42807043813</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125858</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619338</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431609</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501178</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>381.1049005553748</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C31" t="n">
-        <v>381.1049005553748</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D31" t="n">
-        <v>381.1049005553748</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>381.1049005553748</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>381.1049005553748</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1624.638712032431</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>1255.676195092019</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>897.4104964852686</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539437</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269322</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.638712032431</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064537</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962485</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034578</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622243</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.95903803985</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>3235.775364366699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>3235.775364366699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>3235.775364366699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>3235.775364366699</v>
+        <v>1576.174920259439</v>
       </c>
       <c r="W34" t="n">
-        <v>3120.355548834273</v>
+        <v>1286.757750222479</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936255</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792725</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1976.204921733553</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>3126.409852034566</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>3126.409852034566</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3126.409852034566</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3126.409852034566</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>2752.944093773487</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2362.804761797675</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645847</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.12878874783</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>1562.149067134516</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.208022973022</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.09759726723</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923659</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>2324.347354948834</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>2324.347354948834</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>1934.208022973022</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952862</v>
+        <v>554.7329138614817</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952862</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952862</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193525</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.322864763051</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888695</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682808</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645847</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X40" t="n">
-        <v>1761.12878874783</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1540.3362096043</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490881</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>709.615767892637</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.8928126690276</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C43" t="n">
-        <v>72.95662974112065</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>206.4168587363724</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>206.4168587363724</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408147</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427974</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.5412774992673</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038043</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490881</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>709.615767892637</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030294</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>298.6298631030294</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102165</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927785</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064599</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>796.8106393615039</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C46" t="n">
-        <v>627.8744564335971</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D46" t="n">
-        <v>477.7578170212613</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1548.361223971665</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.676735765778</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.259565728817</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>978.4591041917437</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>978.4591041917437</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>43.56824126217987</v>
       </c>
       <c r="M12" t="n">
-        <v>292.3672670436453</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>141.7572465715222</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.95619053890982</v>
       </c>
       <c r="L15" t="n">
-        <v>87.40502165784125</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>201.9664098701132</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>363.7626282652911</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>70.36188534987559</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>115.6617449752296</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>192.9047586887102</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>251.1867816683974</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>-3.789641449919895e-13</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>144.2707130727114</v>
+        <v>61.74151045510206</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22713,19 +22713,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -22764,16 +22764,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030449</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>105.5047860404531</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263361</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>98.22279297373348</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.1261792845319</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>96.6423959582242</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>72.39722277285392</v>
       </c>
       <c r="H11" t="n">
         <v>299.8862654257798</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
         <v>206.1742023667267</v>
@@ -23317,13 +23317,13 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>161.1567052413695</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>146.8105729959039</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.3073323102306</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>77.98326535320803</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>61.44749355031658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>179.3829976412676</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165.73761867712</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>114.6081028441403</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>159.7306677454586</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>122.3302334198733</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>71.07584243450457</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.5367941620016</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22.03206102856217</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>61.44749355031652</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>16.98236473936433</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>195.0468722200108</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.5811270981779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>22.80408245744226</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>41.0659940023348</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.99924321908316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>126.4919521192234</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>18.10451147494084</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>128.1651665445293</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>377.1387452148725</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>95.3197322131854</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2573809594891</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.713960260761667</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.59472895491413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>140.6604872923361</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>153.1371441673842</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>56.27854221392998</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>64.81119518318289</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>141.0143920027651</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>200.1671984673343</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786989.6598734538</v>
+        <v>786989.6598734536</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>786989.6598734538</v>
+        <v>786989.6598734539</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>786989.6598734539</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>786989.6598734538</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856152.4112173759</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856152.4112173759</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856152.411217376</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856152.411217376</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856152.4112173759</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856152.4112173759</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856152.4112173759</v>
+        <v>1013531.16128487</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460884</v>
+        <v>312157.9037460883</v>
       </c>
       <c r="F2" t="n">
-        <v>312157.9037460886</v>
+        <v>312157.9037460883</v>
       </c>
       <c r="G2" t="n">
-        <v>312157.9037460883</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="H2" t="n">
-        <v>312157.9037460886</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="I2" t="n">
+        <v>397081.7868869832</v>
+      </c>
+      <c r="J2" t="n">
         <v>397081.7868869831</v>
       </c>
-      <c r="J2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="K2" t="n">
-        <v>340997.0989709205</v>
+        <v>397081.786886983</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709205</v>
+        <v>397081.786886983</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709205</v>
+        <v>397081.786886983</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709207</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>397081.7868869833</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>397081.786886983</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>242267.3897762178</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>234848.6170503589</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81417.28037467405</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>125192.8247873505</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842216</v>
+        <v>7134.159330842215</v>
       </c>
       <c r="F4" t="n">
-        <v>7134.159330842214</v>
+        <v>7134.159330842218</v>
       </c>
       <c r="G4" t="n">
-        <v>7134.159330842211</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>7134.159330842211</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="J4" t="n">
-        <v>4280.907416980707</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4280.907416980707</v>
-      </c>
       <c r="L4" t="n">
-        <v>4280.907416980707</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>4280.907416980707</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>4280.907416980707</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>4280.907416980707</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>4280.907416980695</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="G5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437334.9129730668</v>
+        <v>-443403.326718886</v>
       </c>
       <c r="C6" t="n">
-        <v>152632.9662414777</v>
+        <v>146564.5524956583</v>
       </c>
       <c r="D6" t="n">
-        <v>152632.9662414778</v>
+        <v>146564.5524956585</v>
       </c>
       <c r="E6" t="n">
-        <v>-225980.5391037842</v>
+        <v>-230898.6881630869</v>
       </c>
       <c r="F6" t="n">
-        <v>243064.9166464522</v>
+        <v>238146.7675871493</v>
       </c>
       <c r="G6" t="n">
-        <v>243064.916646452</v>
+        <v>36139.31595770182</v>
       </c>
       <c r="H6" t="n">
-        <v>243064.9166464522</v>
+        <v>278406.7057339196</v>
       </c>
       <c r="I6" t="n">
-        <v>44230.04358581862</v>
+        <v>278406.7057339199</v>
       </c>
       <c r="J6" t="n">
-        <v>180992.5706178724</v>
+        <v>101983.4865413266</v>
       </c>
       <c r="K6" t="n">
-        <v>262409.8509925465</v>
+        <v>278406.7057339195</v>
       </c>
       <c r="L6" t="n">
-        <v>262409.8509925465</v>
+        <v>278406.7057339195</v>
       </c>
       <c r="M6" t="n">
-        <v>262409.8509925465</v>
+        <v>278406.7057339195</v>
       </c>
       <c r="N6" t="n">
-        <v>262409.8509925467</v>
+        <v>278406.7057339196</v>
       </c>
       <c r="O6" t="n">
-        <v>262409.8509925465</v>
+        <v>153213.8809465693</v>
       </c>
       <c r="P6" t="n">
-        <v>262409.8509925464</v>
+        <v>278406.7057339195</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980343</v>
+        <v>961.5670451980342</v>
       </c>
       <c r="G3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>961.5670451980345</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,46 +26792,46 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26974,16 +26974,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.2096553952641</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>128.2096553952638</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>520.225657850375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1757975519181</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.225657850375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31995,37 +31995,37 @@
         <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>610.0200662717137</v>
       </c>
       <c r="M14" t="n">
         <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>689.7479871047166</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728053</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246316</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T14" t="n">
         <v>16.9216471974046</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H15" t="n">
         <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J15" t="n">
         <v>195.4067520812345</v>
@@ -32095,7 +32095,7 @@
         <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q15" t="n">
         <v>264.0136536173924</v>
@@ -32110,7 +32110,7 @@
         <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32165,13 +32165,13 @@
         <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P16" t="n">
         <v>209.7161962182728</v>
@@ -32180,16 +32180,16 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195862</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S16" t="n">
         <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279934</v>
+        <v>7.408795266279933</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.09458036510144609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>52.14530795926391</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>491.7183277411437</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>610.020066271714</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>678.7648620105704</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>689.7479871047168</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>555.877560033302</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>417.440897495997</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>88.08727253246319</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3092476929280108</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>71.21038966796766</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>195.4067520812346</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>449.0790242691387</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>8.33660485412258</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>52.14530795926392</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>201.45617766608</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>265.345214292107</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>245.0892527662139</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>209.7161962182729</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09458036510144611</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620186</v>
+        <v>460.6050612745972</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892645</v>
+        <v>354.0928857514443</v>
       </c>
       <c r="M12" t="n">
-        <v>674.2872727545556</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N12" t="n">
-        <v>548.3397251787383</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O12" t="n">
         <v>349.4992980164779</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K14" t="n">
         <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>374.2536513017265</v>
       </c>
       <c r="M14" t="n">
         <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>460.3349235081257</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511185</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198255</v>
+        <v>27.23671707198253</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620186</v>
+        <v>294.0960148009285</v>
       </c>
       <c r="L15" t="n">
-        <v>397.9296661471057</v>
+        <v>310.5246444892644</v>
       </c>
       <c r="M15" t="n">
         <v>381.9200057109103</v>
@@ -35740,16 +35740,16 @@
         <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164779</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P15" t="n">
-        <v>579.4384179598712</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
-        <v>28.25672331738873</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.2327364489848</v>
+        <v>29.23273644898478</v>
       </c>
       <c r="K16" t="n">
         <v>179.186685840197</v>
@@ -35819,13 +35819,13 @@
         <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P16" t="n">
         <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>59.03458057320877</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>271.6284766961631</v>
+        <v>539.1576964255137</v>
       </c>
       <c r="L17" t="n">
-        <v>374.2536513017266</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>448.4186287832975</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>460.3349235081258</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>421.2112538511186</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>27.23671707198258</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>68.56912541456785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>196.1398242620187</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>674.2872727545556</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>331.3375346698098</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.23273644898481</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0417376939236</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>271.6284766961631</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>374.2536513017267</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>448.4186287832977</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>460.3349235081259</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>421.2112538511186</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>324.6445642780324</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.1352076215475</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>27.23671707198261</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>68.56912541456788</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>196.1398242620187</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>426.1863894644941</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>579.4384179598713</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>29.23273644898482</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>309.4773866713356</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>206.9947554831664</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.03458057320883</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,16 +36837,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37311,16 +37311,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923321</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37545,28 +37545,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>591.666744908082</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>803.4886170813089</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809033.0548394555</v>
+        <v>835732.1775350319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475534</v>
+        <v>7602841.820114831</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.837864221</v>
+        <v>4325347.66927317</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10639088.44197428</v>
+        <v>10273848.80191212</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>378.1699711250221</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>352.0426595656929</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>235.500096002687</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>135.3069809171851</v>
       </c>
       <c r="V5" t="n">
-        <v>222.2474724296818</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>229.5294654964014</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>275.0782293696271</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.82811972447736</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>357.8184199950705</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.039918580681</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.090115857258385</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>131.6423078754598</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>286.2244489913895</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>276.6997762674749</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667268</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>329.6891672277229</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344744</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5295404796877</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>175.220831800772</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873217</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>265.4912615243748</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>26.2852395983391</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>154.5571055969826</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>148.7050799719692</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.67037196991713</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>185.8810866975744</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,19 +2532,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>91.47612611658022</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>69.60662835550686</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>120.8154218968301</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,13 +2769,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>245.1458442032781</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.6980411577372</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.41948680756549</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>156.8179111106426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>104.2590660175759</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.10967693124363</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="G43" t="n">
-        <v>109.7472660450982</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>38.8175881791722</v>
+        <v>112.9416910403794</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933.544000781331</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1564.581483840919</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.315785234169</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="E2" t="n">
-        <v>820.5275326359244</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>409.5416278463169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2165.663218206289</v>
       </c>
       <c r="V5" t="n">
-        <v>2000.260242234759</v>
+        <v>1834.600330862718</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.260242234759</v>
+        <v>1481.831675592604</v>
       </c>
       <c r="X5" t="n">
-        <v>2000.260242234759</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2015.460301889088</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2015.460301889088</v>
+        <v>1384.626776786412</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.994543628009</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.855211652197</v>
+        <v>1011.161018525332</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978288</v>
+        <v>1600.220404760768</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>1600.220404760768</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431126</v>
+        <v>1241.954706154018</v>
       </c>
       <c r="E11" t="n">
-        <v>807.3934508328821</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4075460432745</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373486</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K11" t="n">
         <v>468.42649406655</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552588</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350723</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
         <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936375</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.184741116959</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R11" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2321.422624080151</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.00975904241</v>
+        <v>1600.220404760768</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>72.3129244299073</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677913</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K12" t="n">
-        <v>702.6555516296426</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L12" t="n">
-        <v>1053.207508523572</v>
+        <v>983.5492420271951</v>
       </c>
       <c r="M12" t="n">
-        <v>1431.308314177374</v>
+        <v>1361.650047680996</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.824967998518</v>
+        <v>1764.16670150214</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.829273034831</v>
+        <v>2110.171006538453</v>
       </c>
       <c r="P12" t="n">
         <v>2438.195165861565</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>672.9506641872703</v>
+        <v>631.8346904700338</v>
       </c>
       <c r="C13" t="n">
-        <v>666.7990320082214</v>
+        <v>631.8346904700338</v>
       </c>
       <c r="D13" t="n">
-        <v>516.6823925958856</v>
+        <v>481.7180510576981</v>
       </c>
       <c r="E13" t="n">
-        <v>368.7692990134925</v>
+        <v>333.8049574753049</v>
       </c>
       <c r="F13" t="n">
-        <v>221.8793515155822</v>
+        <v>186.9150099773946</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485938</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K13" t="n">
         <v>260.2782098866545</v>
@@ -5229,22 +5229,22 @@
         <v>1687.816392302165</v>
       </c>
       <c r="T13" t="n">
-        <v>1687.816392302165</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="U13" t="n">
-        <v>1398.700787260358</v>
+        <v>1175.936348712881</v>
       </c>
       <c r="V13" t="n">
-        <v>1144.016299054471</v>
+        <v>921.2518605069944</v>
       </c>
       <c r="W13" t="n">
-        <v>854.59912901751</v>
+        <v>631.8346904700338</v>
       </c>
       <c r="X13" t="n">
-        <v>854.59912901751</v>
+        <v>631.8346904700338</v>
       </c>
       <c r="Y13" t="n">
-        <v>854.59912901751</v>
+        <v>631.8346904700338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1848.720354406994</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="C14" t="n">
-        <v>1848.720354406994</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="D14" t="n">
-        <v>1569.225630904494</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="E14" t="n">
-        <v>1183.437378306249</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="F14" t="n">
-        <v>772.451473516642</v>
+        <v>531.6042291979923</v>
       </c>
       <c r="G14" t="n">
-        <v>356.8584014423642</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>199.514302137349</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665504</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552597</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M14" t="n">
         <v>1282.872051350724</v>
@@ -5293,37 +5293,37 @@
         <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936375</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.184741116959</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T14" t="n">
-        <v>2488.892320950821</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U14" t="n">
-        <v>2235.320194471115</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="V14" t="n">
-        <v>2235.320194471115</v>
+        <v>2035.675093148885</v>
       </c>
       <c r="W14" t="n">
-        <v>2235.320194471115</v>
+        <v>2035.675093148885</v>
       </c>
       <c r="X14" t="n">
-        <v>2235.320194471115</v>
+        <v>1662.209334887805</v>
       </c>
       <c r="Y14" t="n">
-        <v>2235.320194471115</v>
+        <v>1329.189974051721</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>246.6565409677913</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K15" t="n">
-        <v>537.8115956207105</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2309936650822</v>
+        <v>983.5492420271951</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.331799318883</v>
+        <v>1361.650047680996</v>
       </c>
       <c r="N15" t="n">
-        <v>1625.848453140027</v>
+        <v>1764.16670150214</v>
       </c>
       <c r="O15" t="n">
-        <v>1971.852758176341</v>
+        <v>2110.171006538453</v>
       </c>
       <c r="P15" t="n">
-        <v>2230.218651003075</v>
+        <v>2368.536899365188</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.986726597623</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.7352149361283</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C16" t="n">
-        <v>666.7990320082214</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D16" t="n">
-        <v>516.6823925958856</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E16" t="n">
-        <v>368.7692990134925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>221.8793515155822</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485937</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K16" t="n">
         <v>260.2782098866545</v>
@@ -5454,34 +5454,34 @@
         <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534688</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
         <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302165</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S16" t="n">
-        <v>1492.060663628367</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.060663628367</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="U16" t="n">
-        <v>1492.060663628367</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="V16" t="n">
-        <v>1353.141935871106</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="W16" t="n">
-        <v>1063.724765834146</v>
+        <v>879.548101765939</v>
       </c>
       <c r="X16" t="n">
-        <v>835.7352149361283</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.7352149361283</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>1249.484475624661</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749766</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551633</v>
+        <v>469.5360538946422</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001598</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686785</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522033</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193958</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420605</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107238</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.03465586292</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>2488.892320950822</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>2235.320194471116</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>1904.257307127546</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>1636.084315688783</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>1636.084315688783</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>1636.084315688783</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>121.8264159807867</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>316.0048420001852</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>623.4242400445571</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1001.525045698358</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1404.041699519502</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>1750.046004555816</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2323.690038336088</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>681.943336404663</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>681.943336404663</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1492.060663628368</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1335.942375146567</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1046.826770104759</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.142636483171</v>
+        <v>792.1422818988725</v>
       </c>
       <c r="W19" t="n">
-        <v>1130.72546644621</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X19" t="n">
-        <v>902.7359155481931</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.943336404663</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>1885.467941662048</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>1516.505424721637</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1158.239726114886</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>772.451473516642</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>356.8584014423643</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>2155.602766936377</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>2477.000885571629</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>2670.184741116961</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>2366.737980492457</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>2366.737980492457</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>2035.675093148886</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>2035.675093148886</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>2035.675093148886</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2035.675093148886</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>537.8115956207097</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.811212990069</v>
+        <v>835.7352149361284</v>
       </c>
       <c r="C22" t="n">
-        <v>612.8750300621621</v>
+        <v>666.7990320082215</v>
       </c>
       <c r="D22" t="n">
-        <v>462.7583906498263</v>
+        <v>516.6823925958857</v>
       </c>
       <c r="E22" t="n">
-        <v>314.8452970674332</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F22" t="n">
-        <v>167.9553495695228</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485944</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1500.057718870273</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1500.057718870273</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898817</v>
+        <v>1245.373230664386</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861856</v>
+        <v>1245.373230664386</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963839</v>
+        <v>1017.383679766368</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4596778203087</v>
+        <v>1017.383679766368</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5998,43 +5998,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6083,19 +6083,19 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.2297869963112</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C25" t="n">
-        <v>561.2936040684043</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560685</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258583</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1453.060509258583</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1360.660381868098</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.670830970081</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>911.8782518265509</v>
+        <v>411.3871648742116</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,64 +6214,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.1538185715858</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1295.26890164926</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1040.584413443373</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>1040.584413443373</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X28" t="n">
-        <v>812.5948625453557</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y28" t="n">
-        <v>591.8022834018255</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>390.3640755286979</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3640755286979</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
         <v>390.3640755286979</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y31" t="n">
-        <v>390.3640755286979</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1576.174920259439</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1286.757750222479</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1058.768199324461</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>814.7290857654818</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>645.792902837575</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>495.6762634252392</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>347.7631698428461</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>200.8732223449357</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>200.8732223449357</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>1217.170129739252</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>996.3775505957216</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7183,19 +7183,19 @@
         <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>3316.966490094645</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
-        <v>3819.938960973982</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,16 +7204,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.7329138614817</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
         <v>95.56103444839442</v>
@@ -7368,16 +7368,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>964.3709295897388</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>736.3813786917215</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.3813786917215</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>673.3827746590082</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C43" t="n">
-        <v>504.4465917311013</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D43" t="n">
-        <v>354.3299523187655</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E43" t="n">
-        <v>206.4168587363724</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F43" t="n">
-        <v>206.4168587363724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3805104860112</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7851,7 +7851,7 @@
         <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.5901955154781</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>43.56824126217987</v>
+        <v>363.7626282652911</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70.3618853498761</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>97.95619053890982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>363.7626282652911</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>70.36188534987653</v>
       </c>
       <c r="R15" t="n">
         <v>17.26494649393209</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>201.9664098701132</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>115.6617449752297</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>97.9561905389088</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>314.5564971416988</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>192.9047586887102</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>251.1867816683974</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.760398947239651</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.74151045510206</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22606,7 +22606,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22761,10 +22761,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>50.78177823929073</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.80115265030449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22795,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22834,25 +22834,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>115.9171865911042</v>
       </c>
       <c r="V5" t="n">
-        <v>105.5047860404531</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22995,10 +22995,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.68503059263361</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>98.22279297373348</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>74.16273934778593</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,16 +23181,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.4187013741505</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.1119500771913</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>72.39722277285392</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>299.8862654257798</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>161.1567052413695</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>34.61469812280575</v>
       </c>
       <c r="H13" t="n">
         <v>146.8105729959039</v>
@@ -23469,7 +23469,7 @@
         <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>77.98326535320803</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031658</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>56.54877142833072</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
         <v>146.8105729959039</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>114.6081028441403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>50.48882358826512</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>83.7497071930382</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>122.3302334198733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>65.97968856501896</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>234.0287616915114</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.3554362891111</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>34.65570746442714</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>195.0468722200108</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>148.9780249965879</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>27.80005112138221</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>41.0659940023348</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.54877994089068</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.1651665445293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>95.3197322131854</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>40.49594889674489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>153.1371441673842</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>31.91068339784971</v>
       </c>
       <c r="G43" t="n">
-        <v>56.27854221392998</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.0143920027651</v>
+        <v>66.8902891415579</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>776028.9822512049</v>
+        <v>776028.9822512047</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776028.9822512047</v>
+        <v>776028.9822512049</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786989.6598734536</v>
+        <v>786989.6598734538</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>786989.6598734539</v>
+        <v>786989.6598734538</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.6598734539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.659873454</v>
       </c>
     </row>
     <row r="9">
@@ -26316,31 +26316,31 @@
         <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460883</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="F2" t="n">
-        <v>312157.9037460883</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="G2" t="n">
-        <v>397081.7868869831</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="H2" t="n">
-        <v>397081.7868869831</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="I2" t="n">
-        <v>397081.7868869832</v>
+        <v>397081.786886983</v>
       </c>
       <c r="J2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.786886983</v>
       </c>
       <c r="K2" t="n">
-        <v>397081.786886983</v>
+        <v>397081.7868869829</v>
       </c>
       <c r="L2" t="n">
         <v>397081.786886983</v>
@@ -26349,10 +26349,10 @@
         <v>397081.786886983</v>
       </c>
       <c r="N2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.7868869829</v>
       </c>
       <c r="O2" t="n">
-        <v>397081.7868869833</v>
+        <v>397081.786886983</v>
       </c>
       <c r="P2" t="n">
         <v>397081.786886983</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762178</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>234848.6170503588</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842215</v>
+        <v>7134.159330842214</v>
       </c>
       <c r="F4" t="n">
         <v>7134.159330842218</v>
       </c>
       <c r="G4" t="n">
+        <v>7134.159330842212</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7134.159330842212</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879412</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879412</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>61958.82776879414</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879414</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443403.326718886</v>
+        <v>-437941.7543476487</v>
       </c>
       <c r="C6" t="n">
-        <v>146564.5524956583</v>
+        <v>152026.1248668959</v>
       </c>
       <c r="D6" t="n">
-        <v>146564.5524956585</v>
+        <v>152026.1248668958</v>
       </c>
       <c r="E6" t="n">
-        <v>-230898.6881630869</v>
+        <v>-226472.3540097145</v>
       </c>
       <c r="F6" t="n">
-        <v>238146.7675871493</v>
+        <v>242573.1017405218</v>
       </c>
       <c r="G6" t="n">
-        <v>36139.31595770182</v>
+        <v>242573.1017405216</v>
       </c>
       <c r="H6" t="n">
-        <v>278406.7057339196</v>
+        <v>242573.1017405218</v>
       </c>
       <c r="I6" t="n">
-        <v>278406.7057339199</v>
+        <v>44162.84809559293</v>
       </c>
       <c r="J6" t="n">
-        <v>101983.4865413266</v>
+        <v>102588.2459533587</v>
       </c>
       <c r="K6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459515</v>
       </c>
       <c r="L6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="M6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="N6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459515</v>
       </c>
       <c r="O6" t="n">
-        <v>153213.8809465693</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="P6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459516</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980342</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26792,22 +26792,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26974,16 +26974,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952641</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>128.2096553952638</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.225657850375</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503748</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.225657850375</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31995,37 +31995,37 @@
         <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200893</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206097</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411435</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717137</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
         <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047166</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728051</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333017</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959968</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861146</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246315</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T14" t="n">
         <v>16.9216471974046</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897658</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
         <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796763</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
         <v>195.4067520812345</v>
@@ -32095,7 +32095,7 @@
         <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342643</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
         <v>264.0136536173924</v>
@@ -32110,7 +32110,7 @@
         <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827407</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32165,13 +32165,13 @@
         <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073721</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921068</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
         <v>209.7161962182728</v>
@@ -32180,16 +32180,16 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195861</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S16" t="n">
         <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279933</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09458036510144609</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K12" t="n">
-        <v>460.6050612745972</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L12" t="n">
-        <v>354.0928857514443</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M12" t="n">
         <v>381.9200057109103</v>
@@ -35506,7 +35506,7 @@
         <v>349.4992980164779</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199341</v>
+        <v>331.3375346698102</v>
       </c>
       <c r="Q12" t="n">
         <v>124.0318795313709</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939234</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
         <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017265</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
         <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081257</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511184</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780322</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215473</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198253</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.6601607549767</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K15" t="n">
-        <v>294.0960148009285</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892644</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M15" t="n">
         <v>381.9200057109103</v>
@@ -35740,13 +35740,13 @@
         <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164778</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P15" t="n">
         <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.10916726722</v>
+        <v>194.3937648812474</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898478</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K16" t="n">
         <v>179.186685840197</v>
@@ -35819,13 +35819,13 @@
         <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
         <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.03458057320877</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K17" t="n">
-        <v>539.1576964255137</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>579.4384179598713</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>239.6936245066007</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009275</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>713.3184833610707</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37071,19 +37071,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>591.666744908082</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37788,22 +37788,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>803.4886170813089</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
